--- a/Invoices/P187994_Huy.xlsx
+++ b/Invoices/P187994_Huy.xlsx
@@ -480,10 +480,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
